--- a/biology/Botanique/Forêt_de_Machecoul/Forêt_de_Machecoul.xlsx
+++ b/biology/Botanique/Forêt_de_Machecoul/Forêt_de_Machecoul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Machecoul</t>
+          <t>Forêt_de_Machecoul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Machecoul est une forêt de la Loire-Atlantique située à l'est de Machecoul.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Machecoul</t>
+          <t>Forêt_de_Machecoul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est répertoriée en tant que Zone naturelle d'intérêt écologique, faunistique et floristique (ZNIEFF) dans l'Inventaire national du patrimoine naturel, sous le code ZNIEFF520006613. Elle couvre 563 hectares. Son altitude varie de 15 à 35 mètres. Il s'agit d'une propriété privée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est répertoriée en tant que Zone naturelle d'intérêt écologique, faunistique et floristique (ZNIEFF) dans l'Inventaire national du patrimoine naturel, sous le code ZNIEFF520006613. Elle couvre 563 hectares. Son altitude varie de 15 à 35 mètres. Il s'agit d'une propriété privée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Machecoul</t>
+          <t>Forêt_de_Machecoul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>La forêt de Machecoul dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est citée dans Mais où est donc passée la septième compagnie ? par le personnage du Colonel Blanchet interprété par Robert Lamoureux : « Et aussi longtemps que possible, longez la forêt de Machecoul, vous pourrez vous y abriter en cas de pépin, j’la connais, on peut même s’y perdre. Compris ? ». Le film a pourtant été tourné en forêt de Fontainebleau et en région parisienne et la ligne de front de 1940 n'a pas atteint la forêt. Le nom viendrait plutôt de souvenirs de vacances de Robert Lamoureux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est citée dans Mais où est donc passée la septième compagnie ? par le personnage du Colonel Blanchet interprété par Robert Lamoureux : « Et aussi longtemps que possible, longez la forêt de Machecoul, vous pourrez vous y abriter en cas de pépin, j’la connais, on peut même s’y perdre. Compris ? ». Le film a pourtant été tourné en forêt de Fontainebleau et en région parisienne et la ligne de front de 1940 n'a pas atteint la forêt. Le nom viendrait plutôt de souvenirs de vacances de Robert Lamoureux.
 </t>
         </is>
       </c>
